--- a/HEW残務リスト＋スケジュール.xlsx
+++ b/HEW残務リスト＋スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\HW\HEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C8FA6-E2B4-45B8-8275-81D1E2BE37FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82407106-1D4F-4965-903F-00CE2B61D30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="★開発スケジュール" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>日付</t>
   </si>
@@ -1172,6 +1172,215 @@
     <t>能勢：ステージ3のウェイトポイント</t>
     <rPh sb="0" eb="2">
       <t>ノセ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>小嶋：ステージ5のウェイトポイント</t>
+    <rPh sb="0" eb="2">
+      <t>コジマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>歐：ステージごとの仕様書とスケジュール表</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>古市：ステージ１のプログラム作業</t>
+    <rPh sb="0" eb="2">
+      <t>フルイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>能勢：ステージ3のプログラム作業</t>
+    <rPh sb="0" eb="2">
+      <t>ノセ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>菅原：ステージ2のプログラム作業</t>
+    <rPh sb="0" eb="2">
+      <t>スガワラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>小嶋：ステージ5のプログラム作業</t>
+    <rPh sb="0" eb="2">
+      <t>コジマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中川：ステージ4のプログラム作業</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>古市：エネミーの動き（発見時）を探索に切り替え</t>
+    <rPh sb="0" eb="2">
+      <t>フルイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>歐：仕様書の変更&amp;各ステージのプログラミングの手伝い</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テツダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>古市：ギミック（ワープ）の実装</t>
+    <rPh sb="0" eb="2">
+      <t>フルイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>菅原：ステージ2のプラスアルファ</t>
+    <rPh sb="0" eb="2">
+      <t>スガワラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>菅原：ステージ2のプラスアルファ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>能勢：ステージ3のプラスアルファ</t>
+    <rPh sb="0" eb="2">
+      <t>ノセ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>菅原：ステージ2の修正&amp;プラスアルファ</t>
+    <rPh sb="0" eb="2">
+      <t>スガワラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>歐：ステージ２の確認&amp;修正&amp;各ステージのプログラミングの手伝い</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テツダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>能勢：ステージ3の修正&amp;プラスアルファ</t>
+    <rPh sb="0" eb="2">
+      <t>ノセ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>歐：ステージ3の確認&amp;修正&amp;各ステージのプログラミングの手伝い</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テツダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>小嶋：ステージ5の修正&amp;プラスアルファ</t>
+    <rPh sb="0" eb="2">
+      <t>コジマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中川：ステージ4の修正&amp;プラスアルファ</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>歐：ステージ4,5の修正&amp;確認&amp;各ステージのプログラミングの手伝い</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テツダ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1555,15 +1764,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1573,26 +1773,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1603,11 +1794,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1829,22 +2038,22 @@
   <dimension ref="B1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" customWidth="1"/>
-    <col min="5" max="5" width="116.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="5" max="5" width="116.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1855,1051 +2064,1051 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>44543</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>44544</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>44545</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44546</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44547</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44548</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44549</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44550</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44551</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44552</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44553</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44554</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44555</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44556</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44557</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>44558</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>44559</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>44560</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44561</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>44562</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>44563</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>44564</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>44565</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44566</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44567</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>44568</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44569</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>44570</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="22"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>44571</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="30" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>44572</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="21"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>44573</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44574</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="21"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44575</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="21"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>44576</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44577</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="22"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44578</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="25" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44579</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="21"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>44580</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>44581</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="21"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>44582</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="21"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44583</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="21"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>44584</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="22"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44585</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="20" t="s">
+      <c r="D44" s="27"/>
+      <c r="E44" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="24"/>
-    </row>
-    <row r="45" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>44586</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="21"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44587</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="21"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44588</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="21"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>44589</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="22"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="18"/>
     </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="12"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="6"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="6"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="6"/>
       <c r="C85" s="4"/>
       <c r="D85" s="7"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
       <c r="D86" s="7"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="6"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="6"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
       <c r="C91" s="4"/>
       <c r="D91" s="7"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
       <c r="D92" s="7"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="6"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="6"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="6"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
       <c r="D96" s="8"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="6"/>
       <c r="C97" s="4"/>
       <c r="D97" s="9"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
       <c r="D98" s="7"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="6"/>
       <c r="C99" s="4"/>
       <c r="D99" s="7"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
       <c r="D100" s="7"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="6"/>
       <c r="C101" s="4"/>
       <c r="D101" s="7"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
       <c r="C102" s="4"/>
       <c r="D102" s="7"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
       <c r="C103" s="4"/>
       <c r="D103" s="7"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
       <c r="C104" s="4"/>
       <c r="D104" s="7"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="6"/>
       <c r="C105" s="4"/>
       <c r="D105" s="7"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="6"/>
       <c r="C106" s="4"/>
       <c r="D106" s="7"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
       <c r="C107" s="4"/>
       <c r="D107" s="8"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E109" s="2"/>
     </row>
   </sheetData>
